--- a/PCB/driverPCB/Project Outputs for DriverPCB/BOM/Bill of Materials-DriverPCB.xlsx
+++ b/PCB/driverPCB/Project Outputs for DriverPCB/BOM/Bill of Materials-DriverPCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Ethernet_Power_Load_Controller\PCB\driverPCB\Project Outputs for DriverPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B621AA4A-8B28-41C6-8E00-1DF2770F1F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBBB9124-924C-46DE-BBBB-92D0CFE695C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{9B1AF1D0-BBA4-4D9A-98BF-30861D666478}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{00AA7D54-4A94-4AEC-867C-CE25D2819CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DriverPCB" sheetId="1" r:id="rId1"/>
@@ -182,13 +182,13 @@
     <t>1206 NC</t>
   </si>
   <si>
-    <t>R3_ch1, R3_ch2, R3_ch3, R3_ch4, R3_ch5, R3_ch6, R11, R12, R17_ch1, R17_ch2, R17_ch3, R17_ch4, R17_ch5, R17_ch6, R22, R23, R24, R34, R35</t>
+    <t>R3_ch1, R3_ch2, R3_ch3, R3_ch4, R3_ch5, R3_ch6, R11, R12, R17_ch1, R17_ch2, R17_ch3, R17_ch4, R17_ch5, R17_ch6, R22, R24, R35</t>
   </si>
   <si>
     <t>0402 10K</t>
   </si>
   <si>
-    <t>R2_ch1, R2_ch2, R2_ch3, R2_ch4, R2_ch5, R2_ch6</t>
+    <t>R2_ch1, R2_ch2, R2_ch3, R2_ch4, R2_ch5, R2_ch6, R23, R34</t>
   </si>
   <si>
     <t>0402 100K</t>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5400F1-9B06-4FB3-983A-6BD8CFD7289F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F477287-1E53-4074-BDC8-5D5EC7506BE4}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -916,10 +916,10 @@
         <v>50</v>
       </c>
       <c r="E16" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>51</v>
       </c>
@@ -933,7 +933,7 @@
         <v>52</v>
       </c>
       <c r="E17" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">

--- a/PCB/driverPCB/Project Outputs for DriverPCB/BOM/Bill of Materials-DriverPCB.xlsx
+++ b/PCB/driverPCB/Project Outputs for DriverPCB/BOM/Bill of Materials-DriverPCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Ethernet_Power_Load_Controller\PCB\driverPCB\Project Outputs for DriverPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBBB9124-924C-46DE-BBBB-92D0CFE695C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8BFD18-8613-4223-B6C8-317EA1DEFC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{00AA7D54-4A94-4AEC-867C-CE25D2819CAE}"/>
+    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{DBE3D39F-ECC9-45F3-A7F8-692411357FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DriverPCB" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F477287-1E53-4074-BDC8-5D5EC7506BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD155072-EC95-4542-971A-D4E934D789F1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/PCB/driverPCB/Project Outputs for DriverPCB/BOM/Bill of Materials-DriverPCB.xlsx
+++ b/PCB/driverPCB/Project Outputs for DriverPCB/BOM/Bill of Materials-DriverPCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\Ethernet_Power_Load_Controller\PCB\driverPCB\Project Outputs for DriverPCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF8BFD18-8613-4223-B6C8-317EA1DEFC1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF34CA9F-01D3-4FE6-83F2-15C756F4A519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="0" windowWidth="17280" windowHeight="10008" xr2:uid="{DBE3D39F-ECC9-45F3-A7F8-692411357FA2}"/>
+    <workbookView xWindow="1224" yWindow="288" windowWidth="20952" windowHeight="11316" xr2:uid="{18EC8D8F-2791-436C-93E5-55B9B1DD4072}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DriverPCB" sheetId="1" r:id="rId1"/>
@@ -634,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD155072-EC95-4542-971A-D4E934D789F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E2452-F1E2-4D23-9CB6-57B92F49E11A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
